--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-402937.1085524671</v>
+        <v>-405425.8475819834</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>210.2027402306667</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>211.104742670017</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>37.59617708813193</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>208.2711770227063</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>37.84125266805073</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>7.823231064582328</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7780517840163</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>72.33640507852775</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>121.3678547155317</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>17.65376085597376</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>107.6110020275129</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>220.3446208019833</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>101.0545458193591</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>226.3926032458673</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6452826062320446</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.39152647956271</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>3.006892987830065</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>208.2640550058602</v>
       </c>
       <c r="X22" t="n">
-        <v>60.78102717027888</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>13.79222725775175</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>44.7513807668926</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3709,13 +3709,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261736</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545294</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652626</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1848.950422814786</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>736.8185791558162</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139988</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.550262878908</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y2" t="n">
-        <v>2235.550262878908</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1889.318611635834</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1889.318611635834</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1889.318611635834</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1600.215744761477</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V5" t="n">
-        <v>3177.09166559278</v>
+        <v>2678.274518176915</v>
       </c>
       <c r="W5" t="n">
-        <v>2824.323010322666</v>
+        <v>2325.505862906801</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2317.603609306213</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369613</v>
+        <v>486.5398815319792</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.227472251596</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V7" t="n">
-        <v>1599.542984045709</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.125814008748</v>
+        <v>935.3220115735267</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.136263110731</v>
+        <v>707.3324606755093</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.3436839672011</v>
+        <v>486.5398815319792</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C8" t="n">
-        <v>1952.040104645723</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1593.774406038972</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="E8" t="n">
-        <v>1207.986153440728</v>
+        <v>943.7588583809022</v>
       </c>
       <c r="F8" t="n">
-        <v>797.0002486511205</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>381.927798496117</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>84.34419810488419</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1626.910682069347</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U10" t="n">
-        <v>1626.910682069347</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.22619386346</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.809023826499</v>
+        <v>849.3397962928954</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>849.3397962928954</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>628.5472171493652</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5039,22 +5039,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488567</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>883.8931825606599</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>733.7765431483241</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397314</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360354</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462336</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318806</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5282,7 +5282,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5470,16 +5470,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523796</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,61 +5504,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876647</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597578</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782918</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258102</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396413</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359452</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614346</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179045</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.448174698413</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X22" t="n">
-        <v>1082.889218672183</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.0966395286528</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2401.759668664207</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7026,7 +7026,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7126,16 +7126,16 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
         <v>753.3092412490405</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7263,7 +7263,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7357,10 +7357,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7500,7 +7500,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,19 +7825,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>155.0701515403409</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>195.7713030716944</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>165.9619911617851</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>204.3643179178634</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>17.43847836633083</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>45.37941682721005</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.294712846225</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>25.74504007796068</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.1866975757052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>47.04243616700646</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012564</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>145.6085800303823</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>78.25894333073077</v>
       </c>
       <c r="X22" t="n">
-        <v>164.9286282187583</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>166.0397529241855</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>136.274905234752</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.262279876946173e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1143424.006796279</v>
+        <v>1143424.00679628</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1143424.006796279</v>
+        <v>1143424.00679628</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1143424.006796279</v>
+        <v>1143424.00679628</v>
       </c>
     </row>
     <row r="13">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350417</v>
+        <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="H2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="I2" t="n">
         <v>282501.3098915021</v>
-      </c>
-      <c r="I2" t="n">
-        <v>282501.3098915023</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
@@ -26341,7 +26341,7 @@
         <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
         <v>282501.3098915021</v>
@@ -26353,7 +26353,7 @@
         <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34987.0918457523</v>
+        <v>34987.09184575222</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820648</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820641</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26433,19 +26433,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="I4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685503</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
@@ -26457,7 +26457,7 @@
         <v>22207.61133994853</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1220122.852199696</v>
+        <v>-1220378.721439107</v>
       </c>
       <c r="C6" t="n">
-        <v>86026.89204289932</v>
+        <v>86026.89204289969</v>
       </c>
       <c r="D6" t="n">
-        <v>86026.89204289948</v>
+        <v>86026.89204289921</v>
       </c>
       <c r="E6" t="n">
-        <v>-158250.433816615</v>
+        <v>-158285.1717420513</v>
       </c>
       <c r="F6" t="n">
-        <v>167162.0279907401</v>
+        <v>167127.2900653044</v>
       </c>
       <c r="G6" t="n">
-        <v>167162.02799074</v>
+        <v>167127.290065304</v>
       </c>
       <c r="H6" t="n">
-        <v>167162.02799074</v>
+        <v>167127.2900653044</v>
       </c>
       <c r="I6" t="n">
-        <v>167162.0279907401</v>
+        <v>167127.2900653044</v>
       </c>
       <c r="J6" t="n">
-        <v>-50369.17440653755</v>
+        <v>-50403.91233197324</v>
       </c>
       <c r="K6" t="n">
-        <v>167162.0279907399</v>
+        <v>167127.2900653044</v>
       </c>
       <c r="L6" t="n">
-        <v>167162.02799074</v>
+        <v>167127.2900653042</v>
       </c>
       <c r="M6" t="n">
-        <v>82107.00005522808</v>
+        <v>82072.26212979233</v>
       </c>
       <c r="N6" t="n">
-        <v>167162.02799074</v>
+        <v>167127.2900653043</v>
       </c>
       <c r="O6" t="n">
         <v>142565.1742650035</v>
       </c>
       <c r="P6" t="n">
-        <v>161992.8922586352</v>
+        <v>161992.8922586353</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>128.6457732255354</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>123.3879405522715</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51.33597558191541</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>289.9110058020842</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>361.9078696138867</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>46.46876931461156</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>213.8754331270851</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>285.5081910261797</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>23.92316891695216</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>111.9379472486563</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>66.17837753460771</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543357</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597635</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997668</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326294939</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
